--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna4-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna4-Epha4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.2988413333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.896524</v>
+      </c>
+      <c r="I2">
+        <v>0.3632971504731247</v>
+      </c>
+      <c r="J2">
+        <v>0.3632971504731246</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G2">
-        <v>0.231004</v>
-      </c>
-      <c r="H2">
-        <v>0.693012</v>
-      </c>
-      <c r="I2">
-        <v>0.3060694778933775</v>
-      </c>
-      <c r="J2">
-        <v>0.3060694778933775</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>2.856403666666667</v>
+        <v>8.081040666666667</v>
       </c>
       <c r="N2">
-        <v>8.569210999999999</v>
+        <v>24.243122</v>
       </c>
       <c r="O2">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="P2">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="Q2">
-        <v>0.6598406726146666</v>
+        <v>2.414948967547556</v>
       </c>
       <c r="R2">
-        <v>5.938566053531999</v>
+        <v>21.734540707928</v>
       </c>
       <c r="S2">
-        <v>0.07218114688660358</v>
+        <v>0.1693419096448376</v>
       </c>
       <c r="T2">
-        <v>0.07218114688660356</v>
+        <v>0.1693419096448376</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.231004</v>
+        <v>0.2988413333333333</v>
       </c>
       <c r="H3">
-        <v>0.693012</v>
+        <v>0.896524</v>
       </c>
       <c r="I3">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731247</v>
       </c>
       <c r="J3">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731246</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.000902</v>
       </c>
       <c r="O3">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294714</v>
       </c>
       <c r="P3">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294715</v>
       </c>
       <c r="Q3">
-        <v>1.617097455202667</v>
+        <v>2.09197918496089</v>
       </c>
       <c r="R3">
-        <v>14.553877096824</v>
+        <v>18.827812664648</v>
       </c>
       <c r="S3">
-        <v>0.1768971719815473</v>
+        <v>0.1466945077842734</v>
       </c>
       <c r="T3">
-        <v>0.1768971719815473</v>
+        <v>0.1466945077842734</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.231004</v>
+        <v>0.2988413333333333</v>
       </c>
       <c r="H4">
-        <v>0.693012</v>
+        <v>0.896524</v>
       </c>
       <c r="I4">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731247</v>
       </c>
       <c r="J4">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731246</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>6.765884</v>
       </c>
       <c r="O4">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="P4">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="Q4">
-        <v>0.5209820891786666</v>
+        <v>0.6739752652462222</v>
       </c>
       <c r="R4">
-        <v>4.688838802607999</v>
+        <v>6.065777387215999</v>
       </c>
       <c r="S4">
-        <v>0.05699115902522658</v>
+        <v>0.04726073304401358</v>
       </c>
       <c r="T4">
-        <v>0.05699115902522658</v>
+        <v>0.04726073304401357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1.155575</v>
       </c>
       <c r="I5">
-        <v>0.5103609128220575</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="J5">
-        <v>0.5103609128220574</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.856403666666667</v>
+        <v>8.081040666666667</v>
       </c>
       <c r="N5">
-        <v>8.569210999999999</v>
+        <v>24.243122</v>
       </c>
       <c r="O5">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="P5">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="Q5">
-        <v>1.100262889036111</v>
+        <v>3.112749522794444</v>
       </c>
       <c r="R5">
-        <v>9.902366001324999</v>
+        <v>28.01474570515</v>
       </c>
       <c r="S5">
-        <v>0.1203597178887046</v>
+        <v>0.2182733281404996</v>
       </c>
       <c r="T5">
-        <v>0.1203597178887045</v>
+        <v>0.2182733281404996</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.155575</v>
       </c>
       <c r="I6">
-        <v>0.5103609128220575</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="J6">
-        <v>0.5103609128220574</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.000902</v>
       </c>
       <c r="O6">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294714</v>
       </c>
       <c r="P6">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294715</v>
       </c>
       <c r="Q6">
         <v>2.696457480961111</v>
@@ -818,10 +818,10 @@
         <v>24.26811732865</v>
       </c>
       <c r="S6">
-        <v>0.2949702884114223</v>
+        <v>0.1890819496553486</v>
       </c>
       <c r="T6">
-        <v>0.2949702884114222</v>
+        <v>0.1890819496553486</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.155575</v>
       </c>
       <c r="I7">
-        <v>0.5103609128220575</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="J7">
-        <v>0.5103609128220574</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>6.765884</v>
       </c>
       <c r="O7">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="P7">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="Q7">
         <v>0.8687207114777776</v>
@@ -880,10 +880,10 @@
         <v>7.8184864033</v>
       </c>
       <c r="S7">
-        <v>0.09503090652193066</v>
+        <v>0.06091674242667903</v>
       </c>
       <c r="T7">
-        <v>0.09503090652193065</v>
+        <v>0.06091674242667903</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>0.415644</v>
       </c>
       <c r="I8">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="J8">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.856403666666667</v>
+        <v>8.081040666666667</v>
       </c>
       <c r="N8">
-        <v>8.569210999999999</v>
+        <v>24.243122</v>
       </c>
       <c r="O8">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="P8">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="Q8">
-        <v>0.3957490152093333</v>
+        <v>1.119612022285333</v>
       </c>
       <c r="R8">
-        <v>3.561741136883999</v>
+        <v>10.076508200568</v>
       </c>
       <c r="S8">
-        <v>0.04329168992244788</v>
+        <v>0.07850983207635143</v>
       </c>
       <c r="T8">
-        <v>0.04329168992244788</v>
+        <v>0.07850983207635143</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.415644</v>
       </c>
       <c r="I9">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="J9">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>21.000902</v>
       </c>
       <c r="O9">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294714</v>
       </c>
       <c r="P9">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294715</v>
       </c>
       <c r="Q9">
-        <v>0.9698776567653333</v>
+        <v>0.9698776567653336</v>
       </c>
       <c r="R9">
-        <v>8.728898910888001</v>
+        <v>8.728898910888002</v>
       </c>
       <c r="S9">
-        <v>0.1060966450091748</v>
+        <v>0.06801010568984939</v>
       </c>
       <c r="T9">
-        <v>0.1060966450091748</v>
+        <v>0.0680101056898494</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.415644</v>
       </c>
       <c r="I10">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="J10">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>6.765884</v>
       </c>
       <c r="O10">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="P10">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="Q10">
         <v>0.3124665654773333</v>
@@ -1066,10 +1066,10 @@
         <v>2.812199089296</v>
       </c>
       <c r="S10">
-        <v>0.03418127435294234</v>
+        <v>0.02191089153814731</v>
       </c>
       <c r="T10">
-        <v>0.03418127435294234</v>
+        <v>0.02191089153814731</v>
       </c>
     </row>
   </sheetData>
